--- a/courses/excel/onshore/coe/reach/promotions/FACULTY_OF_BUSINESS_AND_TECHNOLOGY.xlsx
+++ b/courses/excel/onshore/coe/reach/promotions/FACULTY_OF_BUSINESS_AND_TECHNOLOGY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/reach/promotions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\coe\reach\promotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_8B0793BCA77FB21812844C3ABEBA72B099DE0730" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BEC012-A0E0-471A-9255-687D488AC93B}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>vetCode</t>
   </si>
@@ -254,9 +253,6 @@
     <t>106654C/106655B</t>
   </si>
   <si>
-    <t>FACULTY OF BUSINESS &amp; TECHNOLOGY</t>
-  </si>
-  <si>
     <t>44 wks Tuition + 8 wks Break</t>
   </si>
   <si>
@@ -300,17 +296,33 @@
   </si>
   <si>
     <t>These qualifications will only fulfil the academic requirements, not a licensed trade qualification.</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Building and Construction</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,13 +330,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -641,35 +653,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="85.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,10 +738,10 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -736,7 +749,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -745,22 +758,22 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="3">
         <v>6500</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -768,7 +781,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -777,22 +790,22 @@
         <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="3">
         <v>6500</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -800,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -809,22 +822,22 @@
         <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="3">
         <v>6500</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -832,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -841,22 +854,22 @@
         <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="3">
         <v>9000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -864,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -873,22 +886,22 @@
         <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="3">
         <v>8000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -896,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -905,22 +918,22 @@
         <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3">
         <v>8000</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -928,7 +941,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -937,22 +950,22 @@
         <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="3">
         <v>9000</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
         <v>35</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -960,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -969,22 +982,22 @@
         <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="3">
         <v>6500</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -992,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -1001,22 +1014,22 @@
         <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3">
         <v>7000</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1033,22 +1046,22 @@
         <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3">
         <v>8500</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
         <v>35</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1056,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -1065,22 +1078,22 @@
         <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3">
         <v>8500</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>57</v>
@@ -1097,22 +1110,22 @@
         <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3">
         <v>10000</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>59</v>
@@ -1135,16 +1148,16 @@
         <v>13000</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1167,16 +1180,16 @@
         <v>13000</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>61</v>
@@ -1199,16 +1212,16 @@
         <v>16000</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>67</v>
@@ -1231,16 +1244,16 @@
         <v>14000</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>68</v>
@@ -1263,16 +1276,16 @@
         <v>15000</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1280,7 +1293,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>72</v>
@@ -1295,16 +1308,16 @@
         <v>20000</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
